--- a/3DLv2_2023_vs2019_Game/Plan/超開王仕様書.xlsx
+++ b/3DLv2_2023_vs2019_Game/Plan/超開王仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surok\Desktop\01Awamura\3DLv2_2023_vs2019_Game\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A78FE7BB-5643-4199-8C5C-38272251283E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF99671A-5261-446C-B08A-A5398D7A6F92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="6312" activeTab="3" xr2:uid="{7F1A791F-DEB2-41E8-8706-8BF60FD16F39}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="119">
   <si>
     <t>仕様書</t>
     <rPh sb="0" eb="3">
@@ -70,20 +70,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲームオーバー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>時間切れ（orHP0）</t>
-    <rPh sb="0" eb="2">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>操作説明</t>
     <rPh sb="0" eb="4">
       <t>ソウサセツメイ</t>
@@ -91,49 +77,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ゲームをやめる</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（２ステージ目）</t>
-    <rPh sb="6" eb="7">
-      <t>メ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>クリア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（歴代記録表示）</t>
-    <rPh sb="1" eb="3">
-      <t>レキダイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>↓　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>リザルト</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>（難易度選択）</t>
-    <rPh sb="1" eb="4">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -191,52 +135,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>移動はダッシュと歩きのみ。</t>
-    <rPh sb="0" eb="2">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>アル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本はダッシュで他のキー押しながら移動で歩き（もしくは忍び足）。</t>
-    <rPh sb="0" eb="2">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シノ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>アシ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・ジャンプ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>そこまで作りこまない部分</t>
-    <rPh sb="4" eb="5">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ブブン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -247,22 +146,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>歩きとダッシュでジャンプ時の移動速度は変える</t>
-    <rPh sb="0" eb="1">
-      <t>アル</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>イドウソクド</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>地に足がついている時のみジャンプ可能</t>
     <rPh sb="0" eb="1">
       <t>チ</t>
@@ -279,19 +162,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>常にジャンプしながらの移動で速くならないようにする</t>
-    <rPh sb="0" eb="1">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イドウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ハヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・耐久</t>
     <rPh sb="1" eb="3">
       <t>タイキュウ</t>
@@ -331,34 +201,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>高低差を生かすステージを作るなら着地する距離によっても衝撃度を分ける</t>
-    <rPh sb="0" eb="3">
-      <t>コウテイサ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>チャクチ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショウゲキ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>強い衝撃を受けた際はよろけて少しだけ移動できなくなる。</t>
     <rPh sb="0" eb="1">
       <t>ツヨ</t>
@@ -392,25 +234,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>数種類あるうちの３種類が選ばれそれらが繋がり１本道となる。</t>
-    <rPh sb="0" eb="3">
-      <t>スウシュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>エラ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツナ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ホンミチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ステージの入り口と出口は繋がるように全て固定。</t>
     <rPh sb="5" eb="6">
       <t>イ</t>
@@ -433,20 +256,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>なるべくステージによるクリア目安時間の差を小さくする。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイムアタック等でやりごたえを持たせる。</t>
-    <rPh sb="7" eb="8">
-      <t>トウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>モ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>クリアだけなら難しくならない難易度にする。</t>
     <rPh sb="7" eb="8">
       <t>ムズカ</t>
@@ -457,137 +266,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>難易度による差は障害物の数や制限時間のみ。</t>
-    <rPh sb="0" eb="3">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カズ</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>余裕があるときに作る部分。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨユウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・難易度による違い</t>
-    <rPh sb="1" eb="4">
-      <t>ナンイド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・宙にぶら下がっている左右に動く鉄球やハンマーを避ける</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・虫食いみたいに穴がぽつぽつ開いてる１本道</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・空中を移動する土台を乗り換えながら渡る</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・目の前から１部分だけ空いている壁が複数迫ってくる道</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・ダッシュボードがちりばめられた少し長い道</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・常にかなり跳ねる道で障害物を避ける</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・高さの違うブロックを並べてのぼる道</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・間違い探し＆鬼ごっこ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・とても細く曲がり角とかある道</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・左右から巨大な玉が転がってくる道</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランダム</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・スニーキングロード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・障害物まみれで反射するボールを避けながら脱出する部屋</t>
-    <rPh sb="1" eb="4">
-      <t>ショウガイブツ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ハンシャ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ダッシュツ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヘヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・栗ボーみたいな敵をジャンプ踏み付けで倒す部屋</t>
-    <rPh sb="1" eb="2">
-      <t>クリ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>フ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ヘヤ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>作業時間</t>
     <rPh sb="0" eb="4">
       <t>サギョウジカン</t>
@@ -595,6 +273,451 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>難易度選択
+(難易度はステージ数の変化のみ）</t>
+    <rPh sb="0" eb="3">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ナンイド</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ギブアップ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2ステージ目</t>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３ステージ目</t>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CLEAR</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SCORE表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各種設定</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>移動はダッシュとジャンプのみ。</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SCOREアイテムを生かしたSCOREアタック等でやりごたえを持たせる。</t>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>トウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各種ステージ</t>
+    <rPh sb="0" eb="2">
+      <t>カクシュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーのモーション</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１０（不慣れなため多めに取っておく）</t>
+    <rPh sb="3" eb="5">
+      <t>フナ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタート画面とオプション</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プレイヤーのよろめき</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１種類平均１～３時間を目安に作る。</t>
+    <rPh sb="1" eb="3">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘイキン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>メヤス</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モデル探し</t>
+    <rPh sb="3" eb="4">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>落下もあり、落下した場合はそのステージのスタート地点に戻す</t>
+    <rPh sb="0" eb="2">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ラッカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SCORE</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>室内の場合は失敗する条件を満たせばスタート地点に戻す。</t>
+    <rPh sb="0" eb="2">
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シッパイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ノルマクリア時間は自分で導き出す</t>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミチビ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スタート地点に戻されたら減点していく</t>
+    <rPh sb="4" eb="6">
+      <t>チテン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SCOREアイテムポイントとそれぞれのステージに決められたノルマクリア時間によって加点していく</t>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（一応画面上に違う色の輪を通れ的な説明を入れておく）</t>
+  </si>
+  <si>
+    <t>（変なアイテムを取るとその分ポイントが減る。）</t>
+  </si>
+  <si>
+    <t>障害物につまずいて後ろの壁と挟まれればスタートから。</t>
+  </si>
+  <si>
+    <t>←優先して行う作業</t>
+    <rPh sb="1" eb="3">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１・坂道から障害物が転がっていくステージ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２・床（もしくは画面上に）に表示されたキーを押さないと前に進めず、それ以外を押すと横に少しずつ移動して落ちてしまう道。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>３・一度移動すると衝突するまで方向転換できない摩擦0（もしくは無重力）部屋。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>４・違う色の輪３つずつ等間隔で並んでる道で、５～７種くらいを全てくぐるとゴールできるが、一度通った同じ色の輪をくぐるとスタート地点の輪に戻る道。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>５・一度踏むと床が９０度回転する迷路状の道。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>６</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>・鎌や丸太が振り子になって邪魔する道。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>７・常に回転しているとげとげ丸太の上を渡る道。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>８・だるまさんがころんだ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>９・飛んでくる障害物をよけながら全てのタイルを踏めばゴールできるが、一度踏んだタイルを踏むと落ちる部屋。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１０・移動するコインの上に乗ってゆっくりゴールまで進むが、左右上下から障害物が飛んできたりするやつ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１１・部屋中跳ね返りまくるアイテムを全て集めればゴールできる部屋。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１２・ゴールまでの道が無いが、前方（もしくは上）から飛んでくるアイテムを集めてポイントを稼げば道が出現する部屋</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１３・長方形が横穴から出てくるのでそれがひっこむ前に長方形を足場にして進んでいく道。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１４・どんどん後ろから足場が無くなっていく前に進んでいくタイプの迷路。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１５・床が時計になっていて、ずっと回っている針を足場にしてゴールを目指す。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１６・コンベアみたいなのに乗って前方からくる障害物を超えて最終的にゴールが流れてくる部屋。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１７・部屋に散らかってる大きさの違う四角形を運んで一つの階段にしてゴールする部屋。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１８・縦に回転している歯車から歯車へ乗り越えてくアスレチックステージ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>１９・上下左右に動いている移動床を進んでいくステージ。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２０・一定間隔（音か画面上で知らせる）で左右から勢いよく壁が飛んでくるのを穴が開いた床に隠れながら進んでいくステージ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ１</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ２</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ３</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ４</t>
+  </si>
+  <si>
+    <t>ステージ５</t>
+  </si>
+  <si>
+    <t>ステージ６</t>
+  </si>
+  <si>
+    <t>ステージ７</t>
+  </si>
+  <si>
+    <t>ステージ８</t>
+  </si>
+  <si>
+    <t>ステージ９</t>
+  </si>
+  <si>
+    <t>ステージ１０</t>
+  </si>
+  <si>
+    <t>ステージ１１</t>
+  </si>
+  <si>
+    <t>ステージ１２</t>
+  </si>
+  <si>
+    <t>ステージ１３</t>
+  </si>
+  <si>
+    <t>ステージ１４</t>
+  </si>
+  <si>
+    <t>ステージ１５</t>
+  </si>
+  <si>
+    <t>ステージ１６</t>
+  </si>
+  <si>
+    <t>ステージ１７</t>
+  </si>
+  <si>
+    <t>ステージ１８</t>
+  </si>
+  <si>
+    <t>ステージ１９</t>
+  </si>
+  <si>
+    <t>ステージ２０</t>
+  </si>
+  <si>
+    <t>１種類のステージに１～２時間を目安に探す</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステージ作業予定</t>
+    <rPh sb="4" eb="8">
+      <t>サギョウヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>操作方法</t>
+    <rPh sb="0" eb="4">
+      <t>ソウサホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>移動</t>
     <rPh sb="0" eb="2">
       <t>イドウ</t>
@@ -602,59 +725,236 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ジャンプ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>視点</t>
+    <t>WASDで移動できる。余裕が出来れば設定で変更できるようにする。</t>
+  </si>
+  <si>
+    <t>ジャンプはJ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>消耗型アイテムはI</t>
+    <rPh sb="0" eb="3">
+      <t>ショウモウガタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>←優先して実装したいステージ</t>
+    <rPh sb="1" eb="3">
+      <t>ユウセン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>前後左右に移動可能</t>
+    <rPh sb="0" eb="4">
+      <t>ゼンゴサユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>空中にいる際も移動可能</t>
     <rPh sb="0" eb="2">
-      <t>シテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>衝撃</t>
+      <t>クウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>イドウカノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>着地時の衝撃は無し</t>
     <rPh sb="0" eb="2">
+      <t>チャクチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>ショウゲキ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>判定</t>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害物の上に乗っている場合は障害物に合わせて自身も移動する</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>障害物を足場にジャンプも可能</t>
+    <rPh sb="0" eb="3">
+      <t>ショウガイブツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンプ中ぶつかった時の衝撃は大きめに設定する。</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ショウゲキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンプ連打でダッシュより速くならないようにする</t>
+    <rPh sb="4" eb="6">
+      <t>レンダ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>２段ジャンプは無し</t>
+    <rPh sb="1" eb="2">
+      <t>ダン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジャンプ中は衝撃度を１段階上げる</t>
+    <rPh sb="4" eb="5">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ショウゲキド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リスタートやスタートは画面にキーの指示を出す。</t>
+    <rPh sb="11" eb="13">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背景</t>
     <rPh sb="0" eb="2">
-      <t>ハンテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>配置</t>
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>室内用ステージ</t>
     <rPh sb="0" eb="2">
-      <t>ハイチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タイトルその他</t>
-    <rPh sb="6" eb="7">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ステージ内容</t>
-    <rPh sb="4" eb="6">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>モデル探し</t>
-    <rPh sb="3" eb="4">
-      <t>サガ</t>
+      <t>シツナイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記ステージを実装する場合に新たに必要になる作業</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いまいちぱっとしない</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その場面が来たら１～３時間で使えるようにする。</t>
+    <rPh sb="2" eb="4">
+      <t>バメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -663,7 +963,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,8 +987,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -719,8 +1042,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -923,13 +1252,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,9 +1339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -978,9 +1354,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -993,9 +1366,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1009,6 +1379,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1328,7 +1752,7 @@
   <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -1353,7 +1777,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.85">
       <c r="A2" s="3"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="6"/>
@@ -1363,29 +1787,29 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="7"/>
-      <c r="L2" s="18"/>
+      <c r="L2" s="16"/>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.85">
       <c r="C3" s="8"/>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>9</v>
+      <c r="F3" s="12" t="s">
+        <v>7</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="9"/>
-      <c r="L3" s="19"/>
+      <c r="L3" s="17"/>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.85">
@@ -1394,8 +1818,8 @@
         <v>3</v>
       </c>
       <c r="E4" s="5"/>
-      <c r="F4" s="14" t="s">
-        <v>10</v>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -1404,7 +1828,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.85">
       <c r="C5" s="8"/>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="5"/>
@@ -1426,10 +1850,10 @@
       <c r="I6" s="5"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:13" ht="53.1" x14ac:dyDescent="0.85">
       <c r="C7" s="8"/>
-      <c r="D7" s="13" t="s">
-        <v>16</v>
+      <c r="D7" s="24" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -1452,27 +1876,23 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.85">
       <c r="C9" s="8"/>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>8</v>
+      <c r="F9" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="H9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.85">
       <c r="C10" s="8"/>
@@ -1489,12 +1909,20 @@
     <row r="11" spans="1:13" x14ac:dyDescent="0.85">
       <c r="C11" s="8"/>
       <c r="D11" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+        <v>30</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="I11" s="5"/>
       <c r="J11" s="9"/>
     </row>
@@ -1512,13 +1940,21 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.85">
       <c r="C13" s="8"/>
-      <c r="D13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="D13" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="9"/>
     </row>
@@ -1536,15 +1972,11 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.85">
       <c r="C15" s="8"/>
-      <c r="D15" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="D15" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="26"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1553,7 +1985,7 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.85">
       <c r="C16" s="8"/>
       <c r="D16" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -1563,19 +1995,40 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C17" s="10"/>
-      <c r="D17" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.85">
-      <c r="C19" s="21"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
+    </row>
+    <row r="18" spans="3:10" x14ac:dyDescent="0.85">
+      <c r="C18" s="33"/>
+      <c r="D18" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+    </row>
+    <row r="19" spans="3:10" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="C19" s="35"/>
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1586,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372CE951-F5B8-4E31-843A-6DBEB8117C16}">
-  <dimension ref="C2:L29"/>
+  <dimension ref="C2:N44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
@@ -1599,26 +2052,26 @@
   <sheetData>
     <row r="2" spans="3:12" ht="18" thickBot="1" x14ac:dyDescent="0.9">
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D3" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23"/>
+      <c r="D3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="20"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D4" s="24"/>
-      <c r="E4" s="15" t="s">
-        <v>21</v>
+      <c r="D4" s="21"/>
+      <c r="E4" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
@@ -1629,10 +2082,10 @@
       <c r="L4" s="9"/>
     </row>
     <row r="5" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D5" s="24"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1642,10 +2095,10 @@
       <c r="L5" s="9"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D6" s="24"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -1655,10 +2108,10 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D7" s="24"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1668,10 +2121,10 @@
       <c r="L7" s="9"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D8" s="24"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -1681,11 +2134,11 @@
       <c r="L8" s="9"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D9" s="24"/>
-      <c r="E9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="5"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -1694,10 +2147,10 @@
       <c r="L9" s="9"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D10" s="24"/>
+      <c r="D10" s="21"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -1707,10 +2160,10 @@
       <c r="L10" s="9"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D11" s="24"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -1720,11 +2173,11 @@
       <c r="L11" s="9"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D12" s="24"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -1733,10 +2186,10 @@
       <c r="L12" s="9"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D13" s="24"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1746,10 +2199,10 @@
       <c r="L13" s="9"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D14" s="24"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -1759,11 +2212,11 @@
       <c r="L14" s="9"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D15" s="24"/>
-      <c r="E15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="5"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>108</v>
+      </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
@@ -1772,10 +2225,10 @@
       <c r="L15" s="9"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.85">
-      <c r="D16" s="24"/>
+      <c r="D16" s="21"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5" t="s">
-        <v>32</v>
+      <c r="F16" s="27" t="s">
+        <v>109</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -1785,10 +2238,10 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D17" s="24"/>
+      <c r="D17" s="21"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -1797,39 +2250,51 @@
       <c r="K17" s="5"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="4:12" ht="18" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="D18" s="25"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="12"/>
-    </row>
-    <row r="19" spans="4:12" ht="18" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.85">
+      <c r="D18" s="21"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="9"/>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.85">
+      <c r="D19" s="21"/>
+      <c r="E19" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="9"/>
+    </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D20" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="9"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D21" s="24"/>
-      <c r="E21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="5"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
@@ -1838,50 +2303,38 @@
       <c r="L21" s="9"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D22" s="24"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D23" s="24"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="9"/>
-    </row>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+    </row>
+    <row r="23" spans="4:12" ht="18" thickBot="1" x14ac:dyDescent="0.9"/>
     <row r="24" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D24" s="24"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="9"/>
+      <c r="D24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="20"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D25" s="24"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="D25" s="21"/>
+      <c r="E25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
@@ -1890,10 +2343,10 @@
       <c r="L25" s="9"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D26" s="24"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -1903,11 +2356,11 @@
       <c r="L26" s="9"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D27" s="24"/>
-      <c r="E27" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="5"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
@@ -1916,10 +2369,10 @@
       <c r="L27" s="9"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.85">
-      <c r="D28" s="24"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1928,18 +2381,202 @@
       <c r="K28" s="5"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="4:12" ht="18" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="D29" s="25"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="12"/>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.85">
+      <c r="D29" s="21"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="9"/>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.85">
+      <c r="D30" s="21"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="9"/>
+    </row>
+    <row r="31" spans="4:12" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="D31" s="22"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+    </row>
+    <row r="32" spans="4:12" ht="18" thickBot="1" x14ac:dyDescent="0.9"/>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D33" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D34" s="21"/>
+      <c r="E34" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D35" s="21"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D36" s="21"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+    <row r="37" spans="4:14" ht="18" thickBot="1" x14ac:dyDescent="0.9">
+      <c r="D37" s="22"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D39" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D40" s="5"/>
+      <c r="E40" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.85">
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1949,78 +2586,405 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD837BC-281D-43BB-928C-73FC6AB84D6C}">
-  <dimension ref="D4:D16"/>
+  <dimension ref="D4:U26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <sheetData>
-    <row r="4" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D10" t="s">
+    <row r="4" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D4" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D5" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D8" s="38" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D11" t="s">
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D9" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D10" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
+    </row>
+    <row r="11" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D11" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="39"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
+    </row>
+    <row r="12" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D12" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+    </row>
+    <row r="13" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D13" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D14" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
+    </row>
+    <row r="15" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+    </row>
+    <row r="16" spans="4:15" x14ac:dyDescent="0.85">
+      <c r="D16" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D17" s="38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D12" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+    </row>
+    <row r="18" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D18" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="39"/>
+      <c r="N18" s="39"/>
+      <c r="O18" s="39"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D19" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D20" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D21" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+    </row>
+    <row r="22" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D22" s="38" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="4:4" x14ac:dyDescent="0.85">
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
+      <c r="L22" s="39"/>
+      <c r="M22" s="39"/>
+      <c r="N22" s="39"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="39"/>
+      <c r="Q22" s="39"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="39"/>
+      <c r="U22" s="39"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D23" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="39"/>
+      <c r="N23" s="39"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="39"/>
+      <c r="Q23" s="39"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="39"/>
+      <c r="U23" s="39"/>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D24" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D25" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="39"/>
+      <c r="Q25" s="39"/>
+      <c r="R25" s="39"/>
+      <c r="S25" s="39"/>
+      <c r="T25" s="39"/>
+      <c r="U25" s="39"/>
+    </row>
+    <row r="26" spans="4:21" x14ac:dyDescent="0.85">
+      <c r="D26" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="39"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="39"/>
+      <c r="T26" s="39"/>
+      <c r="U26" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -2030,115 +2994,267 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1F962A-49FA-4880-AEDF-F0AEB0FCCD72}">
-  <dimension ref="B2:D19"/>
+  <dimension ref="B2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.7" x14ac:dyDescent="0.85"/>
   <cols>
-    <col min="3" max="3" width="13.37890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.85">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.85">
       <c r="B2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.85">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.85">
       <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C5" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C6" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C7" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C8" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C9" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9" s="36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C10" s="40"/>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="40"/>
+      <c r="G14" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C5" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.85">
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.85">
+      <c r="C16" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.85">
-      <c r="C17" t="s">
-        <v>69</v>
+      <c r="C17" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="D17">
-        <v>30</v>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C18" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.85">
       <c r="C19" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21">
         <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C23" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C25" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C27" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C31" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C32" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C33" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4" x14ac:dyDescent="0.85">
+      <c r="C38" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
